--- a/_3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/_3ПКС-220/3ПКС-220_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\3ПКС-220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D732B-8F54-44B4-9386-15C10DB3B635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5E28B-890B-4C8F-954F-F580B76F671E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Абдуллаев Тагир</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Тест_1</t>
+  </si>
+  <si>
+    <t>Лаб_10</t>
+  </si>
+  <si>
+    <t>Лаб_11</t>
+  </si>
+  <si>
+    <t>Лаб_12</t>
   </si>
 </sst>
 </file>
@@ -145,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,11 +177,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -495,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -506,27 +529,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -545,8 +568,15 @@
       <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
@@ -592,6 +622,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="J6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -628,6 +661,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -661,9 +697,18 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -680,9 +725,15 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">

--- a/_3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/_3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5E28B-890B-4C8F-954F-F580B76F671E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A1C9B4-C7C4-4FCD-9146-A427D6EE9B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,9 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
       <c r="D12" s="2">
         <v>5</v>
       </c>
@@ -751,8 +753,13 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="I12" s="2"/>
+      <c r="J12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -793,6 +800,9 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">

--- a/_3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/_3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A1C9B4-C7C4-4FCD-9146-A427D6EE9B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC8490-A244-4ED8-BC83-AD25989B5061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -798,8 +798,12 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14" s="4">
         <v>5</v>
       </c>
@@ -902,8 +906,12 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
@@ -959,8 +967,12 @@
       <c r="F23" s="2">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
@@ -978,8 +990,12 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
@@ -1015,7 +1031,9 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
@@ -1050,8 +1068,12 @@
         <v>5</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">

--- a/_3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/_3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC8490-A244-4ED8-BC83-AD25989B5061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41099959-E716-4B58-BDDD-30C7BA104368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -860,8 +860,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -877,8 +880,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -893,7 +899,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -912,9 +918,11 @@
       <c r="H20" s="2">
         <v>5</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -933,7 +941,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -950,7 +958,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -975,7 +983,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -996,9 +1004,11 @@
       <c r="H24" s="2">
         <v>5</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1015,7 +1025,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1034,9 +1044,11 @@
       <c r="H26" s="2">
         <v>5</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1051,7 +1063,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1074,9 +1086,11 @@
       <c r="H28" s="2">
         <v>5</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
